--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,7 +89,7 @@
   <si>
     <t>A profile on the Condition resource for MHV PHR exposing Problems using FHIR API.
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- based on US-Core for Condition Resource
+- Should be based on US-Core for Condition Resource
 - Presume we will not expose those that are ProblemTO.removed = true
 TODO:
 - not clear if the ProblemTO.location is describing, is it evidence?
@@ -1521,7 +1521,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:uri}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -3110,7 +3110,7 @@
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
 TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
 TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
-- This profile is based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
+- This profile should be based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
   </si>
   <si>
     <t>DiagnosticReport</t>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
